--- a/seongdong-gu.xlsx
+++ b/seongdong-gu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B71F4EC-4FA9-4054-9D1D-E030B44187F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A9A44-C7CC-40F4-9407-6A570BA6AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>현대</t>
   </si>
@@ -287,7 +287,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울숲IPARK</t>
+    <t>극동미라주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청계벽산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -306,6 +310,13 @@
     <font>
       <sz val="8"/>
       <name val="G마켓 산스 Medium"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -332,8 +343,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -500,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -818,449 +832,449 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>574</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
+        <v>573</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>838</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>877</v>
+        <v>838</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1173</v>
+        <v>877</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2976</v>
+        <v>1178</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3417</v>
+        <v>2976</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3532</v>
+        <v>3418</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3530</v>
+        <v>3420</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7993</v>
+        <v>3532</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>8103</v>
+        <v>3530</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8104</v>
+        <v>7993</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8545</v>
+        <v>8103</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8562</v>
+        <v>8104</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8578</v>
+        <v>8545</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8593</v>
+        <v>8562</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8828</v>
+        <v>8578</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8854</v>
+        <v>8593</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9124</v>
+        <v>8828</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9168</v>
+        <v>8854</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9213</v>
+        <v>9124</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>10316</v>
+        <v>9168</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>10485</v>
+        <v>9213</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10647</v>
+        <v>10316</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10898</v>
+        <v>10485</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>12298</v>
+        <v>10647</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>12299</v>
+        <v>10898</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12535</v>
+        <v>12298</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12536</v>
+        <v>12299</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>12538</v>
+        <v>12535</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>14019</v>
+        <v>12536</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>17301</v>
+        <v>12538</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>17490</v>
+        <v>14019</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>18541</v>
+        <v>17301</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>22725</v>
+        <v>17490</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>27132</v>
+        <v>18541</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>27424</v>
+        <v>22725</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>27575</v>
+        <v>27424</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>27620</v>
+        <v>27575</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>100595</v>
+        <v>27620</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>100692</v>
+        <v>100595</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>101322</v>
+        <v>100692</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>103112</v>
+        <v>101322</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>103136</v>
+        <v>103112</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>104190</v>
+        <v>103136</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>107240</v>
+        <v>104190</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>107508</v>
+        <v>107240</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>108405</v>
+        <v>107508</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>108858</v>
+        <v>108405</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>109910</v>
+        <v>108858</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>109934</v>
+        <v>109910</v>
       </c>
       <c r="B76" t="s">
         <v>67</v>
@@ -1268,97 +1282,105 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>110226</v>
+        <v>109934</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>110936</v>
+        <v>110226</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>110938</v>
+        <v>110936</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>110939</v>
+        <v>110938</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>111002</v>
+        <v>110939</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>111258</v>
+        <v>111002</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>118738</v>
+        <v>111258</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>129510</v>
+        <v>118738</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>138174</v>
+        <v>129510</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>171418</v>
+        <v>138174</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>174098</v>
+        <v>171418</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
+        <v>174098</v>
+      </c>
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>176297</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>79</v>
       </c>
     </row>
